--- a/仕様書(仮).xlsx
+++ b/仕様書(仮).xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\チーム制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\teamproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="歩兵" sheetId="4" r:id="rId1"/>
     <sheet name="弓兵" sheetId="5" r:id="rId2"/>
     <sheet name="カタパルト" sheetId="6" r:id="rId3"/>
     <sheet name="ターンの切り替わり" sheetId="1" r:id="rId4"/>
+    <sheet name="マスの情報" sheetId="7" r:id="rId5"/>
+    <sheet name="CPUの動き" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>歩兵</t>
     <rPh sb="0" eb="2">
@@ -469,6 +471,276 @@
     <t>(仮)</t>
     <rPh sb="1" eb="2">
       <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスの情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源(回収前)</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源(回収後)</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイシュウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物も何もない、
+ただの草道。
+特に障害もなくユニットを
+動かすことができる。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木々が成長しすぎて
+誰も通ることができない。
+ユニットも森に侵入することはできない。</t>
+    <rPh sb="0" eb="2">
+      <t>キギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応足は付くが
+腰くらいまでの深さはある。
+ユニットが侵入すると
+AP使用量が1増える。</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源を採っている最中。
+歩兵が資源を回収した後に
+このイラストが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホヘイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰かが採った後の資源が
+残されている。
+歩兵が近くでクリックすると
+資源が回収できる。</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホヘイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城(PLAYER1)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城(PLAYER2)</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAYER1の自陣地。
+この城を守り切ると
+PLAYER1の勝利。</t>
+    <rPh sb="8" eb="10">
+      <t>ジジン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAYER2の自陣地。
+この城を守り切ると
+PLAYER2の勝利。</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUの動き</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -786,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,7 +1077,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -821,6 +1102,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,31 +1146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -880,16 +1164,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,6 +2280,2224 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2047874" cy="2047875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1600199"/>
+          <a:ext cx="2047874" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="4991099"/>
+          <a:ext cx="2066925" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="4991100"/>
+          <a:ext cx="2057400" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="4972050"/>
+          <a:ext cx="2057400" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="4981575"/>
+          <a:ext cx="2076450" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="8334375"/>
+          <a:ext cx="2057400" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="8362950"/>
+          <a:ext cx="2057400" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1228725"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ターン開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="下矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276726" y="1657350"/>
+          <a:ext cx="285750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="2190750"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットがいるか確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229101" y="2619374"/>
+          <a:ext cx="333374" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="7248525"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットの行動を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="2209800"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニット召喚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="2247900"/>
+          <a:ext cx="876300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400053</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323852</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="屈折矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5610227" y="638174"/>
+          <a:ext cx="476251" cy="2666999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37000"/>
+            <a:gd name="adj2" fmla="val 35000"/>
+            <a:gd name="adj3" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>238123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="屈折矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1676400" y="7391398"/>
+          <a:ext cx="1762128" cy="914402"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17091"/>
+            <a:gd name="adj2" fmla="val 19842"/>
+            <a:gd name="adj3" fmla="val 30091"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="屈折矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5200649" y="7362822"/>
+          <a:ext cx="2171701" cy="990601"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17091"/>
+            <a:gd name="adj2" fmla="val 19842"/>
+            <a:gd name="adj3" fmla="val 30091"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="下矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="7667624"/>
+          <a:ext cx="314324" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="8334375"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="8362950"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="8362950"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>強化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="3419475"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>があるか確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="下矢印 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238626" y="3838573"/>
+          <a:ext cx="333374" cy="3409951"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="3476625"/>
+          <a:ext cx="876300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143624" y="3305174"/>
+          <a:ext cx="1838325" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットが攻撃できるか確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右矢印 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="3457575"/>
+          <a:ext cx="876300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="下矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934201" y="3962399"/>
+          <a:ext cx="333374" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="4743450"/>
+          <a:ext cx="1809750" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃する対象があるか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="3457575"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットの行動終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="下矢印 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934201" y="5372099"/>
+          <a:ext cx="333374" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="右矢印 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="4895850"/>
+          <a:ext cx="876300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="4857750"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユニットの行動終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="6134100"/>
+          <a:ext cx="1752600" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃をする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>238123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="屈折矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991477" y="5314950"/>
+          <a:ext cx="1990723" cy="1123948"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17508"/>
+            <a:gd name="adj2" fmla="val 17203"/>
+            <a:gd name="adj3" fmla="val 22881"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="下矢印 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666876" y="8762999"/>
+          <a:ext cx="314324" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="下矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181476" y="8772524"/>
+          <a:ext cx="314324" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077076" y="8801099"/>
+          <a:ext cx="314324" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123949" y="9534525"/>
+          <a:ext cx="6905625" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>があるか確認に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2232,7 +4749,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -2246,7 +4789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2257,173 +4800,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="J5" s="19" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="J5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="J7" s="20" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="J7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -2492,11 +5035,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -2559,83 +5102,77 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B7:D17"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B43:E44"/>
     <mergeCell ref="B21:D21"/>
@@ -2643,6 +5180,12 @@
     <mergeCell ref="B37:E38"/>
     <mergeCell ref="B39:E40"/>
     <mergeCell ref="B41:E42"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B7:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2667,173 +5210,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="J5" s="19" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="J5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="J7" s="20" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="J7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
@@ -2902,11 +5445,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
@@ -2965,68 +5508,63 @@
     </row>
     <row r="34" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="J7:M17"/>
-    <mergeCell ref="B39:E40"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B41:E42"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="B5:D6"/>
@@ -3034,6 +5572,11 @@
     <mergeCell ref="B19:E20"/>
     <mergeCell ref="B35:E36"/>
     <mergeCell ref="B37:E38"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M17"/>
+    <mergeCell ref="B39:E40"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -3057,110 +5600,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
@@ -3230,60 +5773,60 @@
     </row>
     <row r="28" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3307,155 +5850,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="50" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="80" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="14"/>
     </row>
     <row r="111" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3473,4 +6016,791 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="J5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+    </row>
+    <row r="18" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="J19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="32" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="J33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B35" s="15"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V7:X16"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="J21:M30"/>
+    <mergeCell ref="N21:P30"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E16"/>
+    <mergeCell ref="F7:H16"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="J7:M16"/>
+    <mergeCell ref="N7:P16"/>
+    <mergeCell ref="R5:U6"/>
+    <mergeCell ref="R7:U16"/>
+    <mergeCell ref="J33:M34"/>
+    <mergeCell ref="J35:M44"/>
+    <mergeCell ref="N35:P44"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B21:E30"/>
+    <mergeCell ref="F21:H30"/>
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="B35:E44"/>
+    <mergeCell ref="F35:H44"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>